--- a/Code/Results/Cases/Case_5_164/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_164/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.73569555601143</v>
+        <v>16.2855834829871</v>
       </c>
       <c r="C2">
-        <v>18.75415643746615</v>
+        <v>11.21434405186043</v>
       </c>
       <c r="D2">
-        <v>8.100172121043171</v>
+        <v>9.880341846853312</v>
       </c>
       <c r="E2">
-        <v>11.33370827577399</v>
+        <v>13.9544573197214</v>
       </c>
       <c r="F2">
-        <v>20.64734820608091</v>
+        <v>29.41981128083354</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>10.22451795295361</v>
+        <v>19.27409676538315</v>
       </c>
       <c r="J2">
-        <v>6.284064979076975</v>
+        <v>9.787616231031418</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.56946573181519</v>
+        <v>21.72566271065677</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.10092486357378</v>
+        <v>15.53553635930213</v>
       </c>
       <c r="C3">
-        <v>17.52753145551358</v>
+        <v>10.57202405173073</v>
       </c>
       <c r="D3">
-        <v>7.724904138520339</v>
+        <v>9.811964237362123</v>
       </c>
       <c r="E3">
-        <v>10.84126773587164</v>
+        <v>13.88622203461771</v>
       </c>
       <c r="F3">
-        <v>20.20578405080544</v>
+        <v>29.50437966604834</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>10.66153527707193</v>
+        <v>19.44544583590744</v>
       </c>
       <c r="J3">
-        <v>6.171666371834307</v>
+        <v>9.795528358734048</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.53626059920975</v>
+        <v>21.84320915618729</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.03796971731136</v>
+        <v>15.05590403970333</v>
       </c>
       <c r="C4">
-        <v>16.7303786844349</v>
+        <v>10.15638819930145</v>
       </c>
       <c r="D4">
-        <v>7.48771557038043</v>
+        <v>9.771021521452878</v>
       </c>
       <c r="E4">
-        <v>10.53374354216936</v>
+        <v>13.84691397622056</v>
       </c>
       <c r="F4">
-        <v>19.96006176599616</v>
+        <v>29.56637644760508</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>10.94258531494139</v>
+        <v>19.5562783632397</v>
       </c>
       <c r="J4">
-        <v>6.105590056700589</v>
+        <v>9.802050078544365</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.53877799712211</v>
+        <v>21.92237655212764</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.58984981685764</v>
+        <v>14.85587090174414</v>
       </c>
       <c r="C5">
-        <v>16.39442930961879</v>
+        <v>9.981770028799989</v>
       </c>
       <c r="D5">
-        <v>7.38947339398713</v>
+        <v>9.75461165354373</v>
       </c>
       <c r="E5">
-        <v>10.40729775846969</v>
+        <v>13.83155875148785</v>
       </c>
       <c r="F5">
-        <v>19.86625522489816</v>
+        <v>29.59416026829772</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>11.06016202050997</v>
+        <v>19.60285896525389</v>
       </c>
       <c r="J5">
-        <v>6.079412520137018</v>
+        <v>9.805126129648992</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.54526959725462</v>
+        <v>21.95638776736269</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.51453455196259</v>
+        <v>14.82238620963225</v>
       </c>
       <c r="C6">
-        <v>16.33797360422056</v>
+        <v>9.952461515921398</v>
       </c>
       <c r="D6">
-        <v>7.373068357566849</v>
+        <v>9.751903758068543</v>
       </c>
       <c r="E6">
-        <v>10.38623890321971</v>
+        <v>13.82904941785821</v>
       </c>
       <c r="F6">
-        <v>19.85105851210326</v>
+        <v>29.5989255335807</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>11.07986568878131</v>
+        <v>19.61067917040405</v>
       </c>
       <c r="J6">
-        <v>6.075111284212917</v>
+        <v>9.805662175315506</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.54666885823553</v>
+        <v>21.96214073579839</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.03198686499583</v>
+        <v>15.05322454225488</v>
       </c>
       <c r="C7">
-        <v>16.72589295532928</v>
+        <v>10.15405431818319</v>
       </c>
       <c r="D7">
-        <v>7.48639689494886</v>
+        <v>9.770799083773646</v>
       </c>
       <c r="E7">
-        <v>10.53204257098157</v>
+        <v>13.84670418987355</v>
       </c>
       <c r="F7">
-        <v>19.95877114107865</v>
+        <v>29.56674096587966</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>10.94415883832964</v>
+        <v>19.55690083258499</v>
       </c>
       <c r="J7">
-        <v>6.105233971279213</v>
+        <v>9.802089869175624</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.53884381021099</v>
+        <v>21.92282816572744</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.18426844642696</v>
+        <v>16.03105545504948</v>
       </c>
       <c r="C8">
-        <v>18.34032216883516</v>
+        <v>10.99733553633772</v>
       </c>
       <c r="D8">
-        <v>7.972249930836846</v>
+        <v>9.856556874288749</v>
       </c>
       <c r="E8">
-        <v>11.16508218470337</v>
+        <v>13.93040008656549</v>
       </c>
       <c r="F8">
-        <v>20.48979853791561</v>
+        <v>29.44687265140232</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>10.37245976788536</v>
+        <v>19.3320115771992</v>
       </c>
       <c r="J8">
-        <v>6.244707120237122</v>
+        <v>9.789999111785546</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.55308921260875</v>
+        <v>21.76473603904757</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.93873279931531</v>
+        <v>17.78882160445051</v>
       </c>
       <c r="C9">
-        <v>21.15928792389735</v>
+        <v>12.47904981584823</v>
       </c>
       <c r="D9">
-        <v>8.867042762390279</v>
+        <v>10.03241323302142</v>
       </c>
       <c r="E9">
-        <v>12.35915548879298</v>
+        <v>14.11449281049924</v>
       </c>
       <c r="F9">
-        <v>21.73392772763096</v>
+        <v>29.29225653723545</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>9.361148684948287</v>
+        <v>18.93556228612061</v>
       </c>
       <c r="J9">
-        <v>6.541012518945243</v>
+        <v>9.779483241160852</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.77518809019654</v>
+        <v>21.51059287121511</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.41835195166277</v>
+        <v>18.97385515298169</v>
       </c>
       <c r="C10">
-        <v>23.02244957629937</v>
+        <v>13.45949919669951</v>
       </c>
       <c r="D10">
-        <v>9.484630650580568</v>
+        <v>10.16550534432579</v>
       </c>
       <c r="E10">
-        <v>13.2007283137981</v>
+        <v>14.26109401486267</v>
       </c>
       <c r="F10">
-        <v>22.77181582089479</v>
+        <v>29.22836151625194</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>8.701440779575552</v>
+        <v>18.67136900038363</v>
       </c>
       <c r="J10">
-        <v>6.771936440199935</v>
+        <v>9.779787126839807</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.07233845030448</v>
+        <v>21.35845922945906</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.48713734942544</v>
+        <v>19.48843426857424</v>
       </c>
       <c r="C11">
-        <v>23.82579278487541</v>
+        <v>13.88159880988164</v>
       </c>
       <c r="D11">
-        <v>9.756294886595498</v>
+        <v>10.22672274331498</v>
       </c>
       <c r="E11">
-        <v>13.57481247055305</v>
+        <v>14.33006039955095</v>
       </c>
       <c r="F11">
-        <v>23.27061335735563</v>
+        <v>29.21020329807997</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>8.424565220031541</v>
+        <v>18.55704456381937</v>
       </c>
       <c r="J11">
-        <v>6.879733032101673</v>
+        <v>9.781663632643593</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.23949565669986</v>
+        <v>21.29686976760731</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.8834550734521</v>
+        <v>19.67967655310752</v>
       </c>
       <c r="C12">
-        <v>24.12371857747402</v>
+        <v>14.03797336093682</v>
       </c>
       <c r="D12">
-        <v>9.857795593813117</v>
+        <v>10.24998601723073</v>
       </c>
       <c r="E12">
-        <v>13.71515154668252</v>
+        <v>14.35648653858987</v>
       </c>
       <c r="F12">
-        <v>23.46329796809443</v>
+        <v>29.20490337592358</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>8.323635986901081</v>
+        <v>18.51459456962926</v>
       </c>
       <c r="J12">
-        <v>6.920938829305731</v>
+        <v>9.782623474346131</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.30759551807802</v>
+        <v>21.27465169662584</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.79847316793228</v>
+        <v>19.63865133637584</v>
       </c>
       <c r="C13">
-        <v>24.05983309254986</v>
+        <v>14.00444977722254</v>
       </c>
       <c r="D13">
-        <v>9.835997136370286</v>
+        <v>10.24497247008266</v>
       </c>
       <c r="E13">
-        <v>13.68498641336769</v>
+        <v>14.35078168794683</v>
       </c>
       <c r="F13">
-        <v>23.42163132241829</v>
+        <v>29.20597459952263</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>8.345187998804224</v>
+        <v>18.52369948099734</v>
       </c>
       <c r="J13">
-        <v>6.912047403139143</v>
+        <v>9.782405682567907</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.2927125120437</v>
+        <v>21.27938748656658</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.51991053203153</v>
+        <v>19.5042408739799</v>
       </c>
       <c r="C14">
-        <v>23.85042878291713</v>
+        <v>13.89453341762394</v>
       </c>
       <c r="D14">
-        <v>9.764673098956326</v>
+        <v>10.22863507945414</v>
       </c>
       <c r="E14">
-        <v>13.58638495269274</v>
+        <v>14.33222838085769</v>
       </c>
       <c r="F14">
-        <v>23.28638963525882</v>
+        <v>29.20973564183904</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>8.416179401697036</v>
+        <v>18.55353529936007</v>
       </c>
       <c r="J14">
-        <v>6.883115377191694</v>
+        <v>9.781737608613616</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.24500098365464</v>
+        <v>21.29501968497905</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.34819112579447</v>
+        <v>19.42143692880061</v>
       </c>
       <c r="C15">
-        <v>23.72134672827402</v>
+        <v>13.82675450582887</v>
       </c>
       <c r="D15">
-        <v>9.720805369324871</v>
+        <v>10.21863812618598</v>
       </c>
       <c r="E15">
-        <v>13.52581554324038</v>
+        <v>14.32090380094955</v>
       </c>
       <c r="F15">
-        <v>23.20404426854406</v>
+        <v>29.21224486089154</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>8.460193327786957</v>
+        <v>18.57192027292681</v>
       </c>
       <c r="J15">
-        <v>6.865443642489794</v>
+        <v>9.781360830296999</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.21640710757653</v>
+        <v>21.30473897039227</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.34732183343579</v>
+        <v>18.93972473454828</v>
       </c>
       <c r="C16">
-        <v>22.96906576368367</v>
+        <v>13.43143034801721</v>
       </c>
       <c r="D16">
-        <v>9.466686489211526</v>
+        <v>10.16151688917439</v>
       </c>
       <c r="E16">
-        <v>13.17609937280732</v>
+        <v>14.256631244649</v>
       </c>
       <c r="F16">
-        <v>22.73975180885906</v>
+        <v>29.22976837890435</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>8.720048985341995</v>
+        <v>18.67895823295019</v>
       </c>
       <c r="J16">
-        <v>6.764946106453837</v>
+        <v>9.779699413437498</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.06207573694536</v>
+        <v>21.36263830853166</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.71823019796818</v>
+        <v>18.63786233961212</v>
       </c>
       <c r="C17">
-        <v>22.49629244446982</v>
+        <v>13.18276571476331</v>
       </c>
       <c r="D17">
-        <v>9.308385114947276</v>
+        <v>10.12663646429651</v>
       </c>
       <c r="E17">
-        <v>12.95926966628834</v>
+        <v>14.21777309098722</v>
       </c>
       <c r="F17">
-        <v>22.46172734575002</v>
+        <v>29.24331814355063</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>8.885781060760845</v>
+        <v>18.74612281110439</v>
       </c>
       <c r="J17">
-        <v>6.703990466093615</v>
+        <v>9.779124936609231</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.97574150325094</v>
+        <v>21.4001151519464</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.35081391964383</v>
+        <v>18.46193765244654</v>
       </c>
       <c r="C18">
-        <v>22.22019880990747</v>
+        <v>13.03749076478738</v>
       </c>
       <c r="D18">
-        <v>9.216462419566293</v>
+        <v>10.10663844297293</v>
       </c>
       <c r="E18">
-        <v>12.83373357754198</v>
+        <v>14.19563828240581</v>
       </c>
       <c r="F18">
-        <v>22.30432618293337</v>
+        <v>29.25213794290246</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>8.983250308115775</v>
+        <v>18.78530552638712</v>
       </c>
       <c r="J18">
-        <v>6.669189522179408</v>
+        <v>9.778958177653395</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.92908414212037</v>
+        <v>21.42238723592448</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.2254516907214</v>
+        <v>18.40198047193277</v>
       </c>
       <c r="C19">
-        <v>22.12600036161709</v>
+        <v>12.98791773696131</v>
       </c>
       <c r="D19">
-        <v>9.185190576257732</v>
+        <v>10.09987895845285</v>
       </c>
       <c r="E19">
-        <v>12.79109027910823</v>
+        <v>14.18818132626</v>
       </c>
       <c r="F19">
-        <v>22.25146516721028</v>
+        <v>29.25530019418609</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>9.016604601336336</v>
+        <v>18.79866683862836</v>
       </c>
       <c r="J19">
-        <v>6.657451354719544</v>
+        <v>9.778929845008431</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.91379541406042</v>
+        <v>21.43005093916882</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.78577477770558</v>
+        <v>18.67023503511529</v>
       </c>
       <c r="C20">
-        <v>22.5470507018452</v>
+        <v>13.20946953730352</v>
       </c>
       <c r="D20">
-        <v>9.325327121965378</v>
+        <v>10.1303430026999</v>
       </c>
       <c r="E20">
-        <v>12.98243706213433</v>
+        <v>14.2218874412512</v>
       </c>
       <c r="F20">
-        <v>22.49106387314384</v>
+        <v>29.24176946662718</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>8.867912890282394</v>
+        <v>18.73891595877174</v>
       </c>
       <c r="J20">
-        <v>6.7104525560976</v>
+        <v>9.779169156665846</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.98461991807509</v>
+        <v>21.39605146651634</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.6019584530469</v>
+        <v>19.54381934076168</v>
       </c>
       <c r="C21">
-        <v>23.91210578779397</v>
+        <v>13.9269127441387</v>
       </c>
       <c r="D21">
-        <v>9.785660198709042</v>
+        <v>10.23343167489646</v>
       </c>
       <c r="E21">
-        <v>13.61538276098845</v>
+        <v>14.33766966249883</v>
       </c>
       <c r="F21">
-        <v>23.32601048474919</v>
+        <v>29.20858810059255</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>8.395215901401917</v>
+        <v>18.54474894066055</v>
       </c>
       <c r="J21">
-        <v>6.891603015297938</v>
+        <v>9.781927079896567</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.2588832293336</v>
+        <v>21.29039808020725</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.7399838830147</v>
+        <v>20.09363790688439</v>
       </c>
       <c r="C22">
-        <v>24.76766614886053</v>
+        <v>14.37559686338574</v>
       </c>
       <c r="D22">
-        <v>10.07850382512734</v>
+        <v>10.30127445512182</v>
       </c>
       <c r="E22">
-        <v>14.02134937888385</v>
+        <v>14.41513894711356</v>
       </c>
       <c r="F22">
-        <v>23.89383943238571</v>
+        <v>29.19609205512402</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>8.109486977321177</v>
+        <v>18.42275849307607</v>
       </c>
       <c r="J22">
-        <v>7.012240044126321</v>
+        <v>9.785181935131321</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.46619083159703</v>
+        <v>21.22778965276528</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.13704127649215</v>
+        <v>19.80214895848603</v>
       </c>
       <c r="C23">
-        <v>24.31435825108809</v>
+        <v>14.13798159701823</v>
       </c>
       <c r="D23">
-        <v>9.922950356924247</v>
+        <v>10.26502767497743</v>
       </c>
       <c r="E23">
-        <v>13.80539696611802</v>
+        <v>14.37363338836159</v>
       </c>
       <c r="F23">
-        <v>23.58876178641876</v>
+        <v>29.2019183758708</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>8.259634785318227</v>
+        <v>18.48741796266713</v>
       </c>
       <c r="J23">
-        <v>6.947650933341763</v>
+        <v>9.783312133247588</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.35291890059503</v>
+        <v>21.26061248202446</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.75525576965482</v>
+        <v>18.65560674522315</v>
       </c>
       <c r="C24">
-        <v>22.52411626160106</v>
+        <v>13.1974039457414</v>
       </c>
       <c r="D24">
-        <v>9.317670481747834</v>
+        <v>10.12866710360462</v>
       </c>
       <c r="E24">
-        <v>12.97196581186244</v>
+        <v>14.22002670283554</v>
       </c>
       <c r="F24">
-        <v>22.47779323020672</v>
+        <v>29.24246641606288</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>8.875984317837062</v>
+        <v>18.74217240451517</v>
       </c>
       <c r="J24">
-        <v>6.70753028672446</v>
+        <v>9.779148655389804</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.98059672859283</v>
+        <v>21.39788639743489</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.97242091991987</v>
+        <v>17.33143084942772</v>
       </c>
       <c r="C25">
-        <v>20.43348017336664</v>
+        <v>12.09701482776442</v>
       </c>
       <c r="D25">
-        <v>8.631704748554949</v>
+        <v>9.984097558982874</v>
       </c>
       <c r="E25">
-        <v>12.04198544314007</v>
+        <v>14.06263536441634</v>
       </c>
       <c r="F25">
-        <v>21.37555495975035</v>
+        <v>29.32539944408653</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>9.621541471312566</v>
+        <v>19.03805146126554</v>
       </c>
       <c r="J25">
-        <v>6.458483016658572</v>
+        <v>9.7809164476151</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.69262970530471</v>
+        <v>21.57330925135415</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_164/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_164/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.2855834829871</v>
+        <v>24.73569555601146</v>
       </c>
       <c r="C2">
-        <v>11.21434405186043</v>
+        <v>18.75415643746615</v>
       </c>
       <c r="D2">
-        <v>9.880341846853312</v>
+        <v>8.100172121043132</v>
       </c>
       <c r="E2">
-        <v>13.9544573197214</v>
+        <v>11.33370827577394</v>
       </c>
       <c r="F2">
-        <v>29.41981128083354</v>
+        <v>20.64734820608088</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
-        <v>19.27409676538315</v>
+        <v>10.2245179529536</v>
       </c>
       <c r="J2">
-        <v>9.787616231031418</v>
+        <v>6.284064979076975</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.72566271065677</v>
+        <v>13.56946573181516</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.53553635930213</v>
+        <v>23.10092486357387</v>
       </c>
       <c r="C3">
-        <v>10.57202405173073</v>
+        <v>17.52753145551361</v>
       </c>
       <c r="D3">
-        <v>9.811964237362123</v>
+        <v>7.724904138520317</v>
       </c>
       <c r="E3">
-        <v>13.88622203461771</v>
+        <v>10.84126773587158</v>
       </c>
       <c r="F3">
-        <v>29.50437966604834</v>
+        <v>20.20578405080522</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>19.44544583590744</v>
+        <v>10.66153527707172</v>
       </c>
       <c r="J3">
-        <v>9.795528358734048</v>
+        <v>6.171666371834249</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.84320915618729</v>
+        <v>13.53626059920957</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.05590403970333</v>
+        <v>22.03796971731137</v>
       </c>
       <c r="C4">
-        <v>10.15638819930145</v>
+        <v>16.73037868443484</v>
       </c>
       <c r="D4">
-        <v>9.771021521452878</v>
+        <v>7.487715570380398</v>
       </c>
       <c r="E4">
-        <v>13.84691397622056</v>
+        <v>10.53374354216936</v>
       </c>
       <c r="F4">
-        <v>29.56637644760508</v>
+        <v>19.96006176599616</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>19.5562783632397</v>
+        <v>10.94258531494138</v>
       </c>
       <c r="J4">
-        <v>9.802050078544365</v>
+        <v>6.105590056700616</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.92237655212764</v>
+        <v>13.53877799712211</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.85587090174414</v>
+        <v>21.58984981685769</v>
       </c>
       <c r="C5">
-        <v>9.981770028799989</v>
+        <v>16.39442930961884</v>
       </c>
       <c r="D5">
-        <v>9.75461165354373</v>
+        <v>7.389473393986987</v>
       </c>
       <c r="E5">
-        <v>13.83155875148785</v>
+        <v>10.4072977584697</v>
       </c>
       <c r="F5">
-        <v>29.59416026829772</v>
+        <v>19.86625522489787</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>19.60285896525389</v>
+        <v>11.06016202050981</v>
       </c>
       <c r="J5">
-        <v>9.805126129648992</v>
+        <v>6.079412520137111</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.95638776736269</v>
+        <v>13.54526959725446</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.82238620963225</v>
+        <v>21.51453455196258</v>
       </c>
       <c r="C6">
-        <v>9.952461515921398</v>
+        <v>16.33797360422069</v>
       </c>
       <c r="D6">
-        <v>9.751903758068543</v>
+        <v>7.373068357566908</v>
       </c>
       <c r="E6">
-        <v>13.82904941785821</v>
+        <v>10.38623890321972</v>
       </c>
       <c r="F6">
-        <v>29.5989255335807</v>
+        <v>19.8510585121033</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>19.61067917040405</v>
+        <v>11.07986568878135</v>
       </c>
       <c r="J6">
-        <v>9.805662175315506</v>
+        <v>6.075111284212894</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.96214073579839</v>
+        <v>13.54666885823553</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.05322454225488</v>
+        <v>22.03198686499588</v>
       </c>
       <c r="C7">
-        <v>10.15405431818319</v>
+        <v>16.72589295532928</v>
       </c>
       <c r="D7">
-        <v>9.770799083773646</v>
+        <v>7.486396894948827</v>
       </c>
       <c r="E7">
-        <v>13.84670418987355</v>
+        <v>10.5320425709816</v>
       </c>
       <c r="F7">
-        <v>29.56674096587966</v>
+        <v>19.95877114107853</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>19.55690083258499</v>
+        <v>10.94415883832946</v>
       </c>
       <c r="J7">
-        <v>9.802089869175624</v>
+        <v>6.105233971279265</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.92282816572744</v>
+        <v>13.53884381021085</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.03105545504948</v>
+        <v>24.18426844642689</v>
       </c>
       <c r="C8">
-        <v>10.99733553633772</v>
+        <v>18.3403221688351</v>
       </c>
       <c r="D8">
-        <v>9.856556874288749</v>
+        <v>7.972249930836854</v>
       </c>
       <c r="E8">
-        <v>13.93040008656549</v>
+        <v>11.16508218470342</v>
       </c>
       <c r="F8">
-        <v>29.44687265140232</v>
+        <v>20.48979853791574</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>19.3320115771992</v>
+        <v>10.37245976788551</v>
       </c>
       <c r="J8">
-        <v>9.789999111785546</v>
+        <v>6.244707120237218</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.76473603904757</v>
+        <v>13.55308921260888</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.78882160445051</v>
+        <v>27.93873279931531</v>
       </c>
       <c r="C9">
-        <v>12.47904981584823</v>
+        <v>21.15928792389728</v>
       </c>
       <c r="D9">
-        <v>10.03241323302142</v>
+        <v>8.867042762390241</v>
       </c>
       <c r="E9">
-        <v>14.11449281049924</v>
+        <v>12.35915548879298</v>
       </c>
       <c r="F9">
-        <v>29.29225653723545</v>
+        <v>21.73392772763104</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>18.93556228612061</v>
+        <v>9.361148684948342</v>
       </c>
       <c r="J9">
-        <v>9.779483241160852</v>
+        <v>6.541012518945247</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.51059287121511</v>
+        <v>13.77518809019662</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.97385515298169</v>
+        <v>30.41835195166279</v>
       </c>
       <c r="C10">
-        <v>13.45949919669951</v>
+        <v>23.02244957629934</v>
       </c>
       <c r="D10">
-        <v>10.16550534432579</v>
+        <v>9.484630650580417</v>
       </c>
       <c r="E10">
-        <v>14.26109401486267</v>
+        <v>13.20072831379804</v>
       </c>
       <c r="F10">
-        <v>29.22836151625194</v>
+        <v>22.77181582089472</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>18.67136900038363</v>
+        <v>8.701440779575526</v>
       </c>
       <c r="J10">
-        <v>9.779787126839807</v>
+        <v>6.771936440199925</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.35845922945906</v>
+        <v>14.07233845030448</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.48843426857424</v>
+        <v>31.48713734942545</v>
       </c>
       <c r="C11">
-        <v>13.88159880988164</v>
+        <v>23.82579278487534</v>
       </c>
       <c r="D11">
-        <v>10.22672274331498</v>
+        <v>9.756294886595505</v>
       </c>
       <c r="E11">
-        <v>14.33006039955095</v>
+        <v>13.57481247055306</v>
       </c>
       <c r="F11">
-        <v>29.21020329807997</v>
+        <v>23.27061335735564</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>18.55704456381937</v>
+        <v>8.424565220031594</v>
       </c>
       <c r="J11">
-        <v>9.781663632643593</v>
+        <v>6.879733032101671</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.29686976760731</v>
+        <v>14.23949565669986</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.67967655310752</v>
+        <v>31.88345507345207</v>
       </c>
       <c r="C12">
-        <v>14.03797336093682</v>
+        <v>24.12371857747395</v>
       </c>
       <c r="D12">
-        <v>10.24998601723073</v>
+        <v>9.85779559381313</v>
       </c>
       <c r="E12">
-        <v>14.35648653858987</v>
+        <v>13.71515154668254</v>
       </c>
       <c r="F12">
-        <v>29.20490337592358</v>
+        <v>23.46329796809451</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>18.51459456962926</v>
+        <v>8.323635986901175</v>
       </c>
       <c r="J12">
-        <v>9.782623474346131</v>
+        <v>6.920938829305719</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.27465169662584</v>
+        <v>14.30759551807806</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.63865133637584</v>
+        <v>31.79847316793228</v>
       </c>
       <c r="C13">
-        <v>14.00444977722254</v>
+        <v>24.05983309254982</v>
       </c>
       <c r="D13">
-        <v>10.24497247008266</v>
+        <v>9.835997136370288</v>
       </c>
       <c r="E13">
-        <v>14.35078168794683</v>
+        <v>13.68498641336771</v>
       </c>
       <c r="F13">
-        <v>29.20597459952263</v>
+        <v>23.42163132241821</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>18.52369948099734</v>
+        <v>8.345187998804183</v>
       </c>
       <c r="J13">
-        <v>9.782405682567907</v>
+        <v>6.912047403139156</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.27938748656658</v>
+        <v>14.29271251204369</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.5042408739799</v>
+        <v>31.51991053203152</v>
       </c>
       <c r="C14">
-        <v>13.89453341762394</v>
+        <v>23.85042878291702</v>
       </c>
       <c r="D14">
-        <v>10.22863507945414</v>
+        <v>9.76467309895629</v>
       </c>
       <c r="E14">
-        <v>14.33222838085769</v>
+        <v>13.5863849526927</v>
       </c>
       <c r="F14">
-        <v>29.20973564183904</v>
+        <v>23.28638963525886</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>18.55353529936007</v>
+        <v>8.416179401697056</v>
       </c>
       <c r="J14">
-        <v>9.781737608613616</v>
+        <v>6.883115377191667</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.29501968497905</v>
+        <v>14.24500098365469</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.42143692880061</v>
+        <v>31.34819112579442</v>
       </c>
       <c r="C15">
-        <v>13.82675450582887</v>
+        <v>23.721346728274</v>
       </c>
       <c r="D15">
-        <v>10.21863812618598</v>
+        <v>9.720805369324848</v>
       </c>
       <c r="E15">
-        <v>14.32090380094955</v>
+        <v>13.52581554324033</v>
       </c>
       <c r="F15">
-        <v>29.21224486089154</v>
+        <v>23.20404426854409</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>18.57192027292681</v>
+        <v>8.460193327787067</v>
       </c>
       <c r="J15">
-        <v>9.781360830296999</v>
+        <v>6.865443642489777</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.30473897039227</v>
+        <v>14.21640710757659</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.93972473454828</v>
+        <v>30.34732183343576</v>
       </c>
       <c r="C16">
-        <v>13.43143034801721</v>
+        <v>22.96906576368368</v>
       </c>
       <c r="D16">
-        <v>10.16151688917439</v>
+        <v>9.466686489211499</v>
       </c>
       <c r="E16">
-        <v>14.256631244649</v>
+        <v>13.1760993728073</v>
       </c>
       <c r="F16">
-        <v>29.22976837890435</v>
+        <v>22.73975180885908</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>18.67895823295019</v>
+        <v>8.720048985342093</v>
       </c>
       <c r="J16">
-        <v>9.779699413437498</v>
+        <v>6.764946106453865</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.36263830853166</v>
+        <v>14.06207573694541</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.63786233961212</v>
+        <v>29.71823019796817</v>
       </c>
       <c r="C17">
-        <v>13.18276571476331</v>
+        <v>22.49629244446972</v>
       </c>
       <c r="D17">
-        <v>10.12663646429651</v>
+        <v>9.308385114947225</v>
       </c>
       <c r="E17">
-        <v>14.21777309098722</v>
+        <v>12.95926966628831</v>
       </c>
       <c r="F17">
-        <v>29.24331814355063</v>
+        <v>22.46172734575014</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>18.74612281110439</v>
+        <v>8.88578106076084</v>
       </c>
       <c r="J17">
-        <v>9.779124936609231</v>
+        <v>6.703990466093619</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.4001151519464</v>
+        <v>13.97574150325107</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.46193765244654</v>
+        <v>29.35081391964383</v>
       </c>
       <c r="C18">
-        <v>13.03749076478738</v>
+        <v>22.22019880990748</v>
       </c>
       <c r="D18">
-        <v>10.10663844297293</v>
+        <v>9.216462419566298</v>
       </c>
       <c r="E18">
-        <v>14.19563828240581</v>
+        <v>12.83373357754204</v>
       </c>
       <c r="F18">
-        <v>29.25213794290246</v>
+        <v>22.30432618293352</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>18.78530552638712</v>
+        <v>8.983250308115929</v>
       </c>
       <c r="J18">
-        <v>9.778958177653395</v>
+        <v>6.669189522179495</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.42238723592448</v>
+        <v>13.92908414212046</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.40198047193277</v>
+        <v>29.2254516907214</v>
       </c>
       <c r="C19">
-        <v>12.98791773696131</v>
+        <v>22.12600036161714</v>
       </c>
       <c r="D19">
-        <v>10.09987895845285</v>
+        <v>9.18519057625765</v>
       </c>
       <c r="E19">
-        <v>14.18818132626</v>
+        <v>12.79109027910819</v>
       </c>
       <c r="F19">
-        <v>29.25530019418609</v>
+        <v>22.25146516721023</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>18.79866683862836</v>
+        <v>9.016604601336308</v>
       </c>
       <c r="J19">
-        <v>9.778929845008431</v>
+        <v>6.657451354719529</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.43005093916882</v>
+        <v>13.9137954140604</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.67023503511529</v>
+        <v>29.78577477770555</v>
       </c>
       <c r="C20">
-        <v>13.20946953730352</v>
+        <v>22.54705070184517</v>
       </c>
       <c r="D20">
-        <v>10.1303430026999</v>
+        <v>9.325327121965406</v>
       </c>
       <c r="E20">
-        <v>14.2218874412512</v>
+        <v>12.98243706213435</v>
       </c>
       <c r="F20">
-        <v>29.24176946662718</v>
+        <v>22.49106387314394</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>18.73891595877174</v>
+        <v>8.867912890282529</v>
       </c>
       <c r="J20">
-        <v>9.779169156665846</v>
+        <v>6.710452556097625</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.39605146651634</v>
+        <v>13.98461991807518</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.54381934076168</v>
+        <v>31.60195845304686</v>
       </c>
       <c r="C21">
-        <v>13.9269127441387</v>
+        <v>23.912105787794</v>
       </c>
       <c r="D21">
-        <v>10.23343167489646</v>
+        <v>9.785660198709042</v>
       </c>
       <c r="E21">
-        <v>14.33766966249883</v>
+        <v>13.61538276098843</v>
       </c>
       <c r="F21">
-        <v>29.20858810059255</v>
+        <v>23.32601048474926</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>18.54474894066055</v>
+        <v>8.395215901402004</v>
       </c>
       <c r="J21">
-        <v>9.781927079896567</v>
+        <v>6.891603015297923</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.29039808020725</v>
+        <v>14.25888322933364</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.09363790688439</v>
+        <v>32.7399838830147</v>
       </c>
       <c r="C22">
-        <v>14.37559686338574</v>
+        <v>24.76766614886051</v>
       </c>
       <c r="D22">
-        <v>10.30127445512182</v>
+        <v>10.07850382512728</v>
       </c>
       <c r="E22">
-        <v>14.41513894711356</v>
+        <v>14.02134937888383</v>
       </c>
       <c r="F22">
-        <v>29.19609205512402</v>
+        <v>23.89383943238575</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>18.42275849307607</v>
+        <v>8.109486977321254</v>
       </c>
       <c r="J22">
-        <v>9.785181935131321</v>
+        <v>7.012240044126313</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.22778965276528</v>
+        <v>14.46619083159709</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.80214895848603</v>
+        <v>32.13704127649211</v>
       </c>
       <c r="C23">
-        <v>14.13798159701823</v>
+        <v>24.31435825108799</v>
       </c>
       <c r="D23">
-        <v>10.26502767497743</v>
+        <v>9.922950356924209</v>
       </c>
       <c r="E23">
-        <v>14.37363338836159</v>
+        <v>13.80539696611801</v>
       </c>
       <c r="F23">
-        <v>29.2019183758708</v>
+        <v>23.5887617864188</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>18.48741796266713</v>
+        <v>8.259634785318298</v>
       </c>
       <c r="J23">
-        <v>9.783312133247588</v>
+        <v>6.947650933341734</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.26061248202446</v>
+        <v>14.35291890059511</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.65560674522315</v>
+        <v>29.75525576965487</v>
       </c>
       <c r="C24">
-        <v>13.1974039457414</v>
+        <v>22.52411626160094</v>
       </c>
       <c r="D24">
-        <v>10.12866710360462</v>
+        <v>9.317670481747836</v>
       </c>
       <c r="E24">
-        <v>14.22002670283554</v>
+        <v>12.97196581186244</v>
       </c>
       <c r="F24">
-        <v>29.24246641606288</v>
+        <v>22.47779323020666</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>18.74217240451517</v>
+        <v>8.875984317836984</v>
       </c>
       <c r="J24">
-        <v>9.779148655389804</v>
+        <v>6.707530286724479</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.39788639743489</v>
+        <v>13.98059672859281</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.33143084942772</v>
+        <v>26.97242091991983</v>
       </c>
       <c r="C25">
-        <v>12.09701482776442</v>
+        <v>20.43348017336662</v>
       </c>
       <c r="D25">
-        <v>9.984097558982874</v>
+        <v>8.63170474855494</v>
       </c>
       <c r="E25">
-        <v>14.06263536441634</v>
+        <v>12.04198544314006</v>
       </c>
       <c r="F25">
-        <v>29.32539944408653</v>
+        <v>21.37555495975042</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>19.03805146126554</v>
+        <v>9.621541471312643</v>
       </c>
       <c r="J25">
-        <v>9.7809164476151</v>
+        <v>6.458483016658538</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.57330925135415</v>
+        <v>13.69262970530476</v>
       </c>
     </row>
   </sheetData>
